--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Alcam-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Alcam-L1cam.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H2">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I2">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J2">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="N2">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="O2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="P2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="Q2">
-        <v>1.996973490003555</v>
+        <v>1.358746736585</v>
       </c>
       <c r="R2">
-        <v>17.972761410032</v>
+        <v>12.228720629265</v>
       </c>
       <c r="S2">
-        <v>0.006518577330825786</v>
+        <v>0.005596015584903357</v>
       </c>
       <c r="T2">
-        <v>0.006518577330825786</v>
+        <v>0.005596015584903358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H3">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I3">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J3">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.135769</v>
       </c>
       <c r="O3">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="P3">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="Q3">
-        <v>0.0636010448551111</v>
+        <v>0.07790302669277777</v>
       </c>
       <c r="R3">
-        <v>0.572409403696</v>
+        <v>0.7011272402349999</v>
       </c>
       <c r="S3">
-        <v>0.000207608328946131</v>
+        <v>0.0003208445987363407</v>
       </c>
       <c r="T3">
-        <v>0.000207608328946131</v>
+        <v>0.0003208445987363407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H4">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I4">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J4">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="N4">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="O4">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="P4">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="Q4">
-        <v>0.5933175719235555</v>
+        <v>0.7081605843922222</v>
       </c>
       <c r="R4">
-        <v>5.339858147311999</v>
+        <v>6.37344525953</v>
       </c>
       <c r="S4">
-        <v>0.001936723994425485</v>
+        <v>0.00291656830531437</v>
       </c>
       <c r="T4">
-        <v>0.001936723994425485</v>
+        <v>0.002916568305314371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1679946666666667</v>
+        <v>0.2057716666666667</v>
       </c>
       <c r="H5">
-        <v>0.503984</v>
+        <v>0.6173149999999999</v>
       </c>
       <c r="I5">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="J5">
-        <v>0.01092395986782543</v>
+        <v>0.01089677771948535</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="N5">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="O5">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="P5">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="Q5">
-        <v>0.6926752736106665</v>
+        <v>0.5009937858255555</v>
       </c>
       <c r="R5">
-        <v>6.234077462496</v>
+        <v>4.50894407243</v>
       </c>
       <c r="S5">
-        <v>0.002261050213628024</v>
+        <v>0.002063349230531277</v>
       </c>
       <c r="T5">
-        <v>0.002261050213628024</v>
+        <v>0.002063349230531278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.002559</v>
       </c>
       <c r="I6">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J6">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="N6">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="O6">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="P6">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="Q6">
-        <v>3.97251449483411</v>
+        <v>2.206691509981</v>
       </c>
       <c r="R6">
-        <v>35.752630453507</v>
+        <v>19.860223589829</v>
       </c>
       <c r="S6">
-        <v>0.0129671941375428</v>
+        <v>0.009088286837003998</v>
       </c>
       <c r="T6">
-        <v>0.0129671941375428</v>
+        <v>0.009088286837004004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.002559</v>
       </c>
       <c r="I7">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J7">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.135769</v>
       </c>
       <c r="O7">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="P7">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="Q7">
         <v>0.1265194925412222</v>
@@ -883,10 +883,10 @@
         <v>1.138675432871</v>
       </c>
       <c r="S7">
-        <v>0.0004129885049126641</v>
+        <v>0.0005210721269765143</v>
       </c>
       <c r="T7">
-        <v>0.0004129885049126641</v>
+        <v>0.0005210721269765145</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.002559</v>
       </c>
       <c r="I8">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J8">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="N8">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="O8">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="P8">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="Q8">
-        <v>1.180267372754111</v>
+        <v>1.150098033139778</v>
       </c>
       <c r="R8">
-        <v>10.622406354787</v>
+        <v>10.350882298258</v>
       </c>
       <c r="S8">
-        <v>0.003852662130399417</v>
+        <v>0.004736693266173136</v>
       </c>
       <c r="T8">
-        <v>0.003852662130399417</v>
+        <v>0.004736693266173138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.002559</v>
       </c>
       <c r="I9">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="J9">
-        <v>0.02173067851584017</v>
+        <v>0.01769706320706529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="N9">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="O9">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="P9">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="Q9">
-        <v>1.377916421227333</v>
+        <v>0.8136459164664444</v>
       </c>
       <c r="R9">
-        <v>12.401247791046</v>
+        <v>7.322813248198</v>
       </c>
       <c r="S9">
-        <v>0.004497833742985289</v>
+        <v>0.003351010976911636</v>
       </c>
       <c r="T9">
-        <v>0.00449783374298529</v>
+        <v>0.003351010976911637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H10">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I10">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J10">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="N10">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="O10">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="P10">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="Q10">
-        <v>8.839974919351889</v>
+        <v>3.232767988247</v>
       </c>
       <c r="R10">
-        <v>79.559774274167</v>
+        <v>29.094911894223</v>
       </c>
       <c r="S10">
-        <v>0.02885569608350341</v>
+        <v>0.01331419576401328</v>
       </c>
       <c r="T10">
-        <v>0.02885569608350341</v>
+        <v>0.01331419576401329</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H11">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I11">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J11">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.135769</v>
       </c>
       <c r="O11">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="P11">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="Q11">
-        <v>0.2815418653167778</v>
+        <v>0.1853490456307778</v>
       </c>
       <c r="R11">
-        <v>2.533876787851</v>
+        <v>1.668141410677</v>
       </c>
       <c r="S11">
-        <v>0.0009190169174098987</v>
+        <v>0.0007633623839301196</v>
       </c>
       <c r="T11">
-        <v>0.0009190169174098986</v>
+        <v>0.0007633623839301198</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H12">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I12">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J12">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="N12">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="O12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="P12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="Q12">
-        <v>2.626430686871889</v>
+        <v>1.684875338516222</v>
       </c>
       <c r="R12">
-        <v>23.637876181847</v>
+        <v>15.163878046646</v>
       </c>
       <c r="S12">
-        <v>0.008573269310849898</v>
+        <v>0.006939180348394727</v>
       </c>
       <c r="T12">
-        <v>0.008573269310849898</v>
+        <v>0.006939180348394728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7436596666666667</v>
+        <v>0.4895776666666666</v>
       </c>
       <c r="H13">
-        <v>2.230979</v>
+        <v>1.468733</v>
       </c>
       <c r="I13">
-        <v>0.04835694200998704</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="J13">
-        <v>0.04835694200998703</v>
+        <v>0.02592591631545138</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="N13">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="O13">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="P13">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="Q13">
-        <v>3.066256050280666</v>
+        <v>1.191978335269555</v>
       </c>
       <c r="R13">
-        <v>27.596304452526</v>
+        <v>10.727805017426</v>
       </c>
       <c r="S13">
-        <v>0.01000895969822383</v>
+        <v>0.004909177819113247</v>
       </c>
       <c r="T13">
-        <v>0.01000895969822383</v>
+        <v>0.004909177819113248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H14">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I14">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J14">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="N14">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="O14">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="P14">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="Q14">
-        <v>167.9972769745685</v>
+        <v>117.894319534096</v>
       </c>
       <c r="R14">
-        <v>1511.975492771117</v>
+        <v>1061.048875806864</v>
       </c>
       <c r="S14">
-        <v>0.5483814616512178</v>
+        <v>0.4855492430786094</v>
       </c>
       <c r="T14">
-        <v>0.5483814616512178</v>
+        <v>0.4855492430786095</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H15">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I15">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J15">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.135769</v>
       </c>
       <c r="O15">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="P15">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="Q15">
-        <v>5.35049784180011</v>
+        <v>6.759408559592889</v>
       </c>
       <c r="R15">
-        <v>48.154480576201</v>
+        <v>60.834677036336</v>
       </c>
       <c r="S15">
-        <v>0.01746524634141658</v>
+        <v>0.02783870947081732</v>
       </c>
       <c r="T15">
-        <v>0.01746524634141658</v>
+        <v>0.02783870947081732</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H16">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I16">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J16">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="N16">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="O16">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="P16">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="Q16">
-        <v>49.91339993408855</v>
+        <v>61.44493890570311</v>
       </c>
       <c r="R16">
-        <v>449.220599406797</v>
+        <v>553.004450151328</v>
       </c>
       <c r="S16">
-        <v>0.162928731374502</v>
+        <v>0.253061756449149</v>
       </c>
       <c r="T16">
-        <v>0.162928731374502</v>
+        <v>0.253061756449149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.13270966666667</v>
+        <v>17.85418133333333</v>
       </c>
       <c r="H17">
-        <v>42.398129</v>
+        <v>53.562544</v>
       </c>
       <c r="I17">
-        <v>0.9189884196063474</v>
+        <v>0.9454802427579979</v>
       </c>
       <c r="J17">
-        <v>0.9189884196063474</v>
+        <v>0.945480242757998</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="N17">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="O17">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="P17">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="Q17">
-        <v>58.27196023218065</v>
+        <v>43.46970622292978</v>
       </c>
       <c r="R17">
-        <v>524.4476420896259</v>
+        <v>391.227356006368</v>
       </c>
       <c r="S17">
-        <v>0.190212980239211</v>
+        <v>0.1790305337594221</v>
       </c>
       <c r="T17">
-        <v>0.190212980239211</v>
+        <v>0.1790305337594222</v>
       </c>
     </row>
   </sheetData>
